--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H2">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>0.1456468160253248</v>
+        <v>0.4807336490102223</v>
       </c>
       <c r="R2">
-        <v>0.1456468160253248</v>
+        <v>4.326602841092</v>
       </c>
       <c r="S2">
-        <v>0.01181103953983894</v>
+        <v>0.006452682100592872</v>
       </c>
       <c r="T2">
-        <v>0.01181103953983894</v>
+        <v>0.007562029823214108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H3">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>9.21091874712023</v>
+        <v>24.23805413461755</v>
       </c>
       <c r="R3">
-        <v>9.21091874712023</v>
+        <v>218.142487211558</v>
       </c>
       <c r="S3">
-        <v>0.7469475027972082</v>
+        <v>0.3253370309934807</v>
       </c>
       <c r="T3">
-        <v>0.7469475027972082</v>
+        <v>0.381269105251999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H4">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>0.06840854532082372</v>
+        <v>0.05250823711933333</v>
       </c>
       <c r="R4">
-        <v>0.06840854532082372</v>
+        <v>0.472574134074</v>
       </c>
       <c r="S4">
-        <v>0.005547502209087931</v>
+        <v>0.0007047956024946443</v>
       </c>
       <c r="T4">
-        <v>0.005547502209087931</v>
+        <v>0.0008259643481963825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3969536666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.190861</v>
+      </c>
+      <c r="I5">
+        <v>0.4375843187631858</v>
+      </c>
+      <c r="J5">
+        <v>0.4731252557598102</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.655122</v>
+      </c>
+      <c r="N5">
+        <v>1.965366</v>
+      </c>
+      <c r="O5">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P5">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q5">
+        <v>0.260053080014</v>
+      </c>
+      <c r="R5">
+        <v>2.340477720126</v>
+      </c>
+      <c r="S5">
+        <v>0.003490581235711881</v>
+      </c>
+      <c r="T5">
+        <v>0.004090683376820867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3969536666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.190861</v>
+      </c>
+      <c r="I6">
+        <v>0.4375843187631858</v>
+      </c>
+      <c r="J6">
+        <v>0.4731252557598102</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>19.068426</v>
+      </c>
+      <c r="N6">
+        <v>38.136852</v>
+      </c>
+      <c r="O6">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P6">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q6">
+        <v>7.569281618261999</v>
+      </c>
+      <c r="R6">
+        <v>45.41568970957199</v>
+      </c>
+      <c r="S6">
+        <v>0.1015992288309056</v>
+      </c>
+      <c r="T6">
+        <v>0.07937747295957984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.917282</v>
+      </c>
+      <c r="I7">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J7">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.633172</v>
+      </c>
+      <c r="O7">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P7">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q7">
+        <v>0.3702936976115556</v>
+      </c>
+      <c r="R7">
+        <v>3.332643278504</v>
+      </c>
+      <c r="S7">
+        <v>0.004970293881986253</v>
+      </c>
+      <c r="T7">
+        <v>0.005824788821111351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.917282</v>
+      </c>
+      <c r="I8">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J8">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N8">
+        <v>183.180478</v>
+      </c>
+      <c r="O8">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P8">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q8">
+        <v>18.66979502453289</v>
+      </c>
+      <c r="R8">
+        <v>168.028155220796</v>
+      </c>
+      <c r="S8">
+        <v>0.2505966712015609</v>
+      </c>
+      <c r="T8">
+        <v>0.2936793525052581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="H5">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>17.918771390257</v>
-      </c>
-      <c r="N5">
-        <v>17.918771390257</v>
-      </c>
-      <c r="O5">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="P5">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="Q5">
-        <v>2.906439695886267</v>
-      </c>
-      <c r="R5">
-        <v>2.906439695886267</v>
-      </c>
-      <c r="S5">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="T5">
-        <v>0.2356939554538648</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.917282</v>
+      </c>
+      <c r="I9">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J9">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.132278</v>
+      </c>
+      <c r="N9">
+        <v>0.396834</v>
+      </c>
+      <c r="O9">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P9">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q9">
+        <v>0.04044540946533334</v>
+      </c>
+      <c r="R9">
+        <v>0.3640086851880001</v>
+      </c>
+      <c r="S9">
+        <v>0.0005428814276792105</v>
+      </c>
+      <c r="T9">
+        <v>0.0006362138228074261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.917282</v>
+      </c>
+      <c r="I10">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J10">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.655122</v>
+      </c>
+      <c r="N10">
+        <v>1.965366</v>
+      </c>
+      <c r="O10">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P10">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q10">
+        <v>0.200310539468</v>
+      </c>
+      <c r="R10">
+        <v>1.802794855212</v>
+      </c>
+      <c r="S10">
+        <v>0.002688682673339933</v>
+      </c>
+      <c r="T10">
+        <v>0.003150922088519985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.917282</v>
+      </c>
+      <c r="I11">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J11">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.068426</v>
+      </c>
+      <c r="N11">
+        <v>38.136852</v>
+      </c>
+      <c r="O11">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P11">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q11">
+        <v>5.830374646044</v>
+      </c>
+      <c r="R11">
+        <v>34.982247876264</v>
+      </c>
+      <c r="S11">
+        <v>0.07825862449141487</v>
+      </c>
+      <c r="T11">
+        <v>0.06114191929310752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2044335</v>
+      </c>
+      <c r="H12">
+        <v>0.408867</v>
+      </c>
+      <c r="I12">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J12">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.633172</v>
+      </c>
+      <c r="O12">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P12">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q12">
+        <v>0.247580689354</v>
+      </c>
+      <c r="R12">
+        <v>1.485484136124</v>
+      </c>
+      <c r="S12">
+        <v>0.003323169671888372</v>
+      </c>
+      <c r="T12">
+        <v>0.002596326899384633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2044335</v>
+      </c>
+      <c r="H13">
+        <v>0.408867</v>
+      </c>
+      <c r="I13">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J13">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N13">
+        <v>183.180478</v>
+      </c>
+      <c r="O13">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P13">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q13">
+        <v>12.482742083071</v>
+      </c>
+      <c r="R13">
+        <v>74.896452498426</v>
+      </c>
+      <c r="S13">
+        <v>0.1675505065467903</v>
+      </c>
+      <c r="T13">
+        <v>0.1309039050376737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2044335</v>
+      </c>
+      <c r="H14">
+        <v>0.408867</v>
+      </c>
+      <c r="I14">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J14">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.132278</v>
+      </c>
+      <c r="N14">
+        <v>0.396834</v>
+      </c>
+      <c r="O14">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P14">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q14">
+        <v>0.027042054513</v>
+      </c>
+      <c r="R14">
+        <v>0.162252327078</v>
+      </c>
+      <c r="S14">
+        <v>0.0003629739284498917</v>
+      </c>
+      <c r="T14">
+        <v>0.0002835843689179596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2044335</v>
+      </c>
+      <c r="H15">
+        <v>0.408867</v>
+      </c>
+      <c r="I15">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J15">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.655122</v>
+      </c>
+      <c r="N15">
+        <v>1.965366</v>
+      </c>
+      <c r="O15">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P15">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q15">
+        <v>0.133928883387</v>
+      </c>
+      <c r="R15">
+        <v>0.8035733003219999</v>
+      </c>
+      <c r="S15">
+        <v>0.001797670103524017</v>
+      </c>
+      <c r="T15">
+        <v>0.001404484184325977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2044335</v>
+      </c>
+      <c r="H16">
+        <v>0.408867</v>
+      </c>
+      <c r="I16">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J16">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.068426</v>
+      </c>
+      <c r="N16">
+        <v>38.136852</v>
+      </c>
+      <c r="O16">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P16">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q16">
+        <v>3.898225066670999</v>
+      </c>
+      <c r="R16">
+        <v>15.592900266684</v>
+      </c>
+      <c r="S16">
+        <v>0.05232420731018049</v>
+      </c>
+      <c r="T16">
+        <v>0.02725324721908311</v>
       </c>
     </row>
   </sheetData>
